--- a/envo/document/data/4.xlsx
+++ b/envo/document/data/4.xlsx
@@ -16,156 +16,318 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
-  <si>
-    <t xml:space="preserve">Ông (nội, ngoại) </t>
-  </si>
-  <si>
-    <t>Grandfather</t>
-  </si>
-  <si>
-    <t>Bà (nội, ngoại)</t>
-  </si>
-  <si>
-    <t>Grandmother</t>
-  </si>
-  <si>
-    <t>Ba</t>
-  </si>
-  <si>
-    <t>Mẹ</t>
-  </si>
-  <si>
-    <t>Con trai</t>
-  </si>
-  <si>
-    <t>Con gái</t>
-  </si>
-  <si>
-    <t>Vợ</t>
-  </si>
-  <si>
-    <t>Chồng</t>
-  </si>
-  <si>
-    <t>Cháu trai</t>
-  </si>
-  <si>
-    <t>Cháu gái</t>
-  </si>
-  <si>
-    <t>Anh em họ</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Son</t>
-  </si>
-  <si>
-    <t>Daughter</t>
-  </si>
-  <si>
-    <t>Wife</t>
-  </si>
-  <si>
-    <t>Husband</t>
-  </si>
-  <si>
-    <t>Nephew</t>
-  </si>
-  <si>
-    <t>Niece</t>
-  </si>
-  <si>
-    <t>Cousin</t>
-  </si>
-  <si>
-    <t>Anh em</t>
-  </si>
-  <si>
-    <t>Brother</t>
-  </si>
-  <si>
-    <t>Sister</t>
-  </si>
-  <si>
-    <t>Cô/dì/thím</t>
-  </si>
-  <si>
-    <t>Aunt</t>
-  </si>
-  <si>
-    <t>Chú/bác/cậu</t>
-  </si>
-  <si>
-    <t>Uncle</t>
-  </si>
-  <si>
-    <t>Chị em</t>
-  </si>
-  <si>
-    <t>Chị em dâu/vợ</t>
-  </si>
-  <si>
-    <t>Anh em rể/vợ</t>
-  </si>
-  <si>
-    <t>Sister in law</t>
-  </si>
-  <si>
-    <t>Brother in law</t>
-  </si>
-  <si>
-    <t>Đàn ông</t>
-  </si>
-  <si>
-    <t>Phụ nữ</t>
-  </si>
-  <si>
-    <t>Em bé</t>
-  </si>
-  <si>
-    <t>Cha mẹ</t>
-  </si>
-  <si>
-    <t>Ông bà</t>
-  </si>
-  <si>
-    <t>Con cái</t>
-  </si>
-  <si>
-    <t>Man</t>
-  </si>
-  <si>
-    <t>Woman</t>
-  </si>
-  <si>
-    <t>Boy</t>
-  </si>
-  <si>
-    <t>Girl</t>
-  </si>
-  <si>
-    <t>Baby</t>
-  </si>
-  <si>
-    <t>Grandparents</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parents</t>
-  </si>
-  <si>
-    <t>Granddaughter</t>
-  </si>
-  <si>
-    <t>Grandson</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+  <si>
+    <t>Mặt</t>
+  </si>
+  <si>
+    <t>Miệng</t>
+  </si>
+  <si>
+    <t>Cằm</t>
+  </si>
+  <si>
+    <t>Cổ</t>
+  </si>
+  <si>
+    <t>Vai</t>
+  </si>
+  <si>
+    <t>Cánh tay</t>
+  </si>
+  <si>
+    <t>Khuỷu tay</t>
+  </si>
+  <si>
+    <t>Nách</t>
+  </si>
+  <si>
+    <t>Lưng</t>
+  </si>
+  <si>
+    <t>Ngực</t>
+  </si>
+  <si>
+    <t>Bụng</t>
+  </si>
+  <si>
+    <t>Mông</t>
+  </si>
+  <si>
+    <t>Hông</t>
+  </si>
+  <si>
+    <t>Chân</t>
+  </si>
+  <si>
+    <t>Đầu gối</t>
+  </si>
+  <si>
+    <t>Cổ tay</t>
+  </si>
+  <si>
+    <t>Móng tay</t>
+  </si>
+  <si>
+    <t>Ngón tay cái</t>
+  </si>
+  <si>
+    <t>Ngón tay trỏ</t>
+  </si>
+  <si>
+    <t>Ngón tay giữa</t>
+  </si>
+  <si>
+    <t>Ngón đeo nhẫn</t>
+  </si>
+  <si>
+    <t>Ngón út</t>
+  </si>
+  <si>
+    <t>Lòng bàn tay</t>
+  </si>
+  <si>
+    <t>Tóc</t>
+  </si>
+  <si>
+    <t>Trán</t>
+  </si>
+  <si>
+    <t>Tai</t>
+  </si>
+  <si>
+    <t>Má</t>
+  </si>
+  <si>
+    <t>Mũi</t>
+  </si>
+  <si>
+    <t>Lỗ mũi</t>
+  </si>
+  <si>
+    <t>Hàm</t>
+  </si>
+  <si>
+    <t>Râu</t>
+  </si>
+  <si>
+    <t>Ria mép</t>
+  </si>
+  <si>
+    <t>Lưỡi</t>
+  </si>
+  <si>
+    <t>Răng</t>
+  </si>
+  <si>
+    <t>Môi</t>
+  </si>
+  <si>
+    <t>Lông mày</t>
+  </si>
+  <si>
+    <t>Mi mắt</t>
+  </si>
+  <si>
+    <t>Lông mi</t>
+  </si>
+  <si>
+    <t>Mống mắt</t>
+  </si>
+  <si>
+    <t>Con ngươi</t>
+  </si>
+  <si>
+    <t>Mắt cá chân</t>
+  </si>
+  <si>
+    <t>Gót chân</t>
+  </si>
+  <si>
+    <t>Ngón chân</t>
+  </si>
+  <si>
+    <t>Móng chân</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Họng</t>
+  </si>
+  <si>
+    <t>Phổi</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Gan</t>
+  </si>
+  <si>
+    <t>Dạ dày</t>
+  </si>
+  <si>
+    <t>Ruột</t>
+  </si>
+  <si>
+    <t>Thận</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>Chin</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>Elbow</t>
+  </si>
+  <si>
+    <t>Armpit</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>Abdomen</t>
+  </si>
+  <si>
+    <t>Buttocks</t>
+  </si>
+  <si>
+    <t>Leg</t>
+  </si>
+  <si>
+    <t>Knee</t>
+  </si>
+  <si>
+    <t>Wrist</t>
+  </si>
+  <si>
+    <t>Fingernail</t>
+  </si>
+  <si>
+    <t>Thumb</t>
+  </si>
+  <si>
+    <t>Index finger</t>
+  </si>
+  <si>
+    <t>Middle finger</t>
+  </si>
+  <si>
+    <t>Ring finger</t>
+  </si>
+  <si>
+    <t>Little finger</t>
+  </si>
+  <si>
+    <t>Palm</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>Forehead</t>
+  </si>
+  <si>
+    <t>Ear</t>
+  </si>
+  <si>
+    <t>Cheek</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>Nostril</t>
+  </si>
+  <si>
+    <t>Jaw</t>
+  </si>
+  <si>
+    <t>Beard</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>Tooth</t>
+  </si>
+  <si>
+    <t>Lip</t>
+  </si>
+  <si>
+    <t>Eyebrow</t>
+  </si>
+  <si>
+    <t>Eyelid</t>
+  </si>
+  <si>
+    <t>Eyelashes</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Pupil</t>
+  </si>
+  <si>
+    <t>Ankle</t>
+  </si>
+  <si>
+    <t>Heel</t>
+  </si>
+  <si>
+    <t>Toe</t>
+  </si>
+  <si>
+    <t>Toenail</t>
+  </si>
+  <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>Throat</t>
+  </si>
+  <si>
+    <t>Lung</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Liver</t>
+  </si>
+  <si>
+    <t>Stomach</t>
+  </si>
+  <si>
+    <t>Intestines</t>
+  </si>
+  <si>
+    <t>Kidney</t>
   </si>
 </sst>
 </file>
@@ -497,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,215 +676,415 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
